--- a/biology/Zoologie/Diodon_hystrix_holocanthus/Diodon_hystrix_holocanthus.xlsx
+++ b/biology/Zoologie/Diodon_hystrix_holocanthus/Diodon_hystrix_holocanthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diodon holocanthus · Poisson porc-épic à taches, Poisson porc-épic ballon
-Diodon holocanthus, communément nommé Poisson porc-épic à taches[1] ou Poisson porc-épic ballon[2] ou Poisson-hérisson[3], est une espèce de poissons marins de la famille des Diodontidae.
+Diodon holocanthus, communément nommé Poisson porc-épic à taches ou Poisson porc-épic ballon ou Poisson-hérisson, est une espèce de poissons marins de la famille des Diodontidae.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Localité</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Poisson porc-épic à taches a une distribution circumtropicale.[4] (océan Indien, océan Atlantique, océan Pacifique).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Poisson porc-épic à taches a une distribution circumtropicale. (océan Indien, océan Atlantique, océan Pacifique).
 Il vit dans les récifs coralliens mais aussi sur les fonds ouverts de la surface de l'eau à 100m de profondeur.
 </t>
         </is>
@@ -544,10 +558,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa taille maximale est de 50 cm et sa taille commune est de 15 cm[4]. 
-Il est brun au-dessus et jaune au-dessous[5]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa taille maximale est de 50 cm et sa taille commune est de 15 cm. 
+Il est brun au-dessus et jaune au-dessous. 
 Ce poisson épineux peut, en aspirant de l'eau, gonfler son corps et prendre l'apparence d'une boule d'épines, stratégie dissuasive contre les prédateurs. Ces piquants peuvent mesurer jusqu'à 5 cm.
 C'est un poisson ovipare : pour se reproduire, les femelle libèrent dans l'eau des ovules puis les mâles vont les féconder.
 </t>
@@ -578,9 +594,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poisson-hérisson casse les coquilles et coquillages, les tests et les carapaces, avec son bec (de puissantes mâchoires munies de dents) pour se nourrir de gastéropodes, polypes (coraux), oursins, crabes[6] et autres mollusques[7]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poisson-hérisson casse les coquilles et coquillages, les tests et les carapaces, avec son bec (de puissantes mâchoires munies de dents) pour se nourrir de gastéropodes, polypes (coraux), oursins, crabes et autres mollusques. 
 </t>
         </is>
       </c>
@@ -609,9 +627,11 @@
           <t>Un poisson non comestible, toxique et mortel pour l'homme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les diodons accumulent une toxine, appelée tétrodotoxine, dans tous leurs organes, à l'exception de leurs muscles et du sang, qui les rendent mortellement venimeux (comme leur cousins les fugus). Cette toxine n'est détruite qu'après plusieurs heures d'ébullition à haute température, ainsi, même cuits, les poissons restent potentiellement toxiques pour l'homme qui montre alors les premiers symptômes d'empoisonnement dans l'heure (paresthésie buccale, fourmillement au visage, nausées et douleurs abdominales)[8]. Il n'existe pas de sérum antivenimeux. En cas d'intoxication alimentaire par la tétrodotoxine, poison qui paralyse les muscles et peut entraîner la mort par arrêt respiratoire, il peut être nécessaire de mettre la victime sous assistance respiratoire (bouche-à-bouche...) pour essayer de lui sauver la vie[9].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les diodons accumulent une toxine, appelée tétrodotoxine, dans tous leurs organes, à l'exception de leurs muscles et du sang, qui les rendent mortellement venimeux (comme leur cousins les fugus). Cette toxine n'est détruite qu'après plusieurs heures d'ébullition à haute température, ainsi, même cuits, les poissons restent potentiellement toxiques pour l'homme qui montre alors les premiers symptômes d'empoisonnement dans l'heure (paresthésie buccale, fourmillement au visage, nausées et douleurs abdominales). Il n'existe pas de sérum antivenimeux. En cas d'intoxication alimentaire par la tétrodotoxine, poison qui paralyse les muscles et peut entraîner la mort par arrêt respiratoire, il peut être nécessaire de mettre la victime sous assistance respiratoire (bouche-à-bouche...) pour essayer de lui sauver la vie.
 </t>
         </is>
       </c>
